--- a/3-能力管理/运行记录类文件/030204-2025年1-6月运维服务能力改进计划及跟踪.xlsx
+++ b/3-能力管理/运行记录类文件/030204-2025年1-6月运维服务能力改进计划及跟踪.xlsx
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>

--- a/3-能力管理/运行记录类文件/030204-2025年1-6月运维服务能力改进计划及跟踪.xlsx
+++ b/3-能力管理/运行记录类文件/030204-2025年1-6月运维服务能力改进计划及跟踪.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">
 2025年运维服务能力改进计划及跟踪</t>
@@ -78,27 +78,49 @@
     <t>服务流程管理</t>
   </si>
   <si>
-    <t>查看中国移动北京公司2025年IDCISP信安系统平台技术支持服务项目服务报告时，发现项目服务报告未完全按照公司模板要求完成，内容不完整。</t>
+    <t>运维服务部曾在 2025年6 月 10 日组织过服务知识评审会，但内审员在检查其评审会对应的记录单时，未能提供《服务知识评审记录》</t>
   </si>
   <si>
     <t>1.部门内部增加内部审核环节，每个月最后一天检查服务报告。
-2.交付服务部人员补充完成服务报告。
+2.运维服务部人员补充完成服务报告。
 3.对服务报告及标准进行培训，杜绝记录不完善的事情再次发生。</t>
   </si>
   <si>
     <t>运维服务部</t>
   </si>
   <si>
-    <t>2025年8月13日前完成</t>
+    <t>2025年7月18日前完成</t>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>2025.8.13</t>
+    <t>2025.7.18</t>
   </si>
   <si>
     <t>李琳</t>
+  </si>
+  <si>
+    <t>最终软件库考核指标</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
+    <t>未能满足最终软件库考核指标</t>
+  </si>
+  <si>
+    <t>1.学习github使用
+2.对研发中心人员进行培训,杜绝版本管理不规范的情况再次发生</t>
+  </si>
+  <si>
+    <t>研发中心</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>跟踪中</t>
   </si>
 </sst>
 </file>
@@ -715,7 +737,7 @@
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,6 +766,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,14 +1124,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
+    <col min="2" max="2" width="20.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="17.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="26.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
@@ -1215,6 +1242,35 @@
         <v>22</v>
       </c>
       <c r="K4" s="3"/>
+    </row>
+    <row r="5" ht="57.6" spans="2:10">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45992</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
